--- a/Documents/Use Case & Scénarios.xlsx
+++ b/Documents/Use Case & Scénarios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\3éme année\Projet de groupe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raynk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED548EEF-D89D-4CDC-95B3-699343448F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7410" windowHeight="6510"/>
+    <workbookView xWindow="3450" yWindow="4815" windowWidth="13920" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -98,9 +99,6 @@
     <t>Le joueur tombe dans un trou</t>
   </si>
   <si>
-    <t>Le personnage perd des ponts de vie et réapparait sur le bord du trou</t>
-  </si>
-  <si>
     <t>Ennemis</t>
   </si>
   <si>
@@ -111,9 +109,6 @@
   </si>
   <si>
     <t>L’ennemi commence à poursuivre le joueur</t>
-  </si>
-  <si>
-    <t>Le joueur sort dans le champ de vision de l’ennemi</t>
   </si>
   <si>
     <t>L’ennemi arrête de poursuivre le joueur</t>
@@ -240,12 +235,18 @@
   </si>
   <si>
     <t>Le jeu se ferme</t>
+  </si>
+  <si>
+    <t>Le personnage perd des points de vie et réapparait sur le bord du trou</t>
+  </si>
+  <si>
+    <t>Le joueur sort du champ de vision de l’ennemi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -718,11 +719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,17 +753,17 @@
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
       <c r="J2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="12"/>
       <c r="N2" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="12"/>
       <c r="R2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="12"/>
@@ -830,25 +831,25 @@
         <v>16</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S4" s="5"/>
       <c r="T4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,25 +870,25 @@
         <v>19</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -905,34 +906,34 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S6" s="8"/>
       <c r="T6" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -945,27 +946,27 @@
         <v>22</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S7" s="8"/>
       <c r="T7" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -981,28 +982,28 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="106.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="F10" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
       <c r="J10" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="12"/>
       <c r="N10" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="12"/>
@@ -1047,80 +1048,80 @@
     </row>
     <row r="12" spans="2:20" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:20" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N15" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Documents/Use Case & Scénarios.xlsx
+++ b/Documents/Use Case & Scénarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raynk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPNV\Git\GitHub\Darkest-Cave\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED548EEF-D89D-4CDC-95B3-699343448F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DA94FC-EEB5-407C-BFA1-A7EF726E2E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="4815" windowWidth="13920" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>Déplacement du joueur</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>il reçoit une alerte l’informant que la progression sera perdue si elle n’a pas été sauvegardée. Si il répond oui, il est redirigé vers le menu principal et si c'est non il revient sur le menu pause</t>
-  </si>
-  <si>
-    <t>Systéme d'inventaire</t>
   </si>
   <si>
     <t>Systéme de sauvegarde</t>
@@ -218,9 +215,6 @@
   </si>
   <si>
     <t>Le joueur appuie sur « Quitter »</t>
-  </si>
-  <si>
-    <t>il reçoit une alerte l’informant que la progression sera perdue si elle n’a pas été sauvegardée. Si il répond oui, le jeu se fermel et si c'est non il revient sur le menu pause</t>
   </si>
   <si>
     <t>Si le joueur a déjà fait une sauvegarde
@@ -241,6 +235,9 @@
   </si>
   <si>
     <t>Le joueur sort du champ de vision de l’ennemi</t>
+  </si>
+  <si>
+    <t>il reçoit une alerte l’informant que la progression sera perdue si elle n’a pas été sauvegardée. Si il répond oui, le jeu se ferme et si c'est non il revient sur le menu pause</t>
   </si>
 </sst>
 </file>
@@ -396,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -423,6 +420,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -722,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,31 +751,31 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="J2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="N2" s="10" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="N2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
-      <c r="R2" s="10" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
+      <c r="R2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -892,7 +901,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -906,10 +915,10 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="9" t="s">
@@ -931,7 +940,7 @@
       </c>
     </row>
     <row r="7" spans="2:20" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
@@ -962,11 +971,11 @@
         <v>37</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S7" s="8"/>
       <c r="T7" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -982,31 +991,26 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="106.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="F10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="11"/>
       <c r="H10" s="12"/>
-      <c r="J10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="N10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="12"/>
+      <c r="J10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1036,103 +1040,70 @@
       <c r="L11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="2:20" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
-        <v>58</v>
+      <c r="F12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="6" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="97.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6" t="s">
+    <row r="15" spans="2:20" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="6" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="7">
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
     <mergeCell ref="J10:L10"/>
-    <mergeCell ref="N10:P10"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F2:H2"/>

--- a/Documents/Use Case & Scénarios.xlsx
+++ b/Documents/Use Case & Scénarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPNV\Git\GitHub\Darkest-Cave\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DA94FC-EEB5-407C-BFA1-A7EF726E2E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61584D03-530B-40AF-AF08-CA4BA3210C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6930" yWindow="2955" windowWidth="13920" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Déplacement du joueur</t>
   </si>
@@ -217,11 +217,6 @@
     <t>Le joueur appuie sur « Quitter »</t>
   </si>
   <si>
-    <t>Si le joueur a déjà fait une sauvegarde
-Alors le bouton “Continuer” apparaît et il peut reprendre (charger) sa partie depuis la dernière sauvegarde.
-Sinon le bouton “Continuer” n’apparaît pas.</t>
-  </si>
-  <si>
     <t>Une nouvelle partie se lance</t>
   </si>
   <si>
@@ -238,6 +233,15 @@
   </si>
   <si>
     <t>il reçoit une alerte l’informant que la progression sera perdue si elle n’a pas été sauvegardée. Si il répond oui, le jeu se ferme et si c'est non il revient sur le menu pause</t>
+  </si>
+  <si>
+    <t>le joueur  fait une sauvegarde</t>
+  </si>
+  <si>
+    <t>Alors le bouton “Continuer” apparaît dans le menu principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> il reprend (charger) sa partie depuis la dernière sauvegarde</t>
   </si>
 </sst>
 </file>
@@ -393,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -430,6 +434,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -729,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T16"/>
+  <dimension ref="B1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,31 +758,31 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="F2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="J2" s="14" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="J2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="N2" s="14" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="N2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16"/>
-      <c r="R2" s="14" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="17"/>
+      <c r="R2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -901,7 +908,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -918,7 +925,7 @@
         <v>51</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="9" t="s">
@@ -940,7 +947,7 @@
       </c>
     </row>
     <row r="7" spans="2:20" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
@@ -975,7 +982,7 @@
       </c>
       <c r="S7" s="8"/>
       <c r="T7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -991,7 +998,7 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="106.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1006,11 +1013,11 @@
         <v>49</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1041,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>56</v>
       </c>
@@ -1056,15 +1063,15 @@
       <c r="H12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>59</v>
+      <c r="J12" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="132.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="7" t="s">
         <v>53</v>
       </c>
@@ -1073,32 +1080,41 @@
         <v>54</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="97.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J15" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="N2:P2"/>

--- a/Documents/Use Case & Scénarios.xlsx
+++ b/Documents/Use Case & Scénarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPNV\Git\GitHub\Darkest-Cave\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61584D03-530B-40AF-AF08-CA4BA3210C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB230F9A-A5EE-4B46-A5EE-FDD690852216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6930" yWindow="2955" windowWidth="13920" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2955" windowWidth="13920" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>Déplacement du joueur</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t xml:space="preserve"> il reprend (charger) sa partie depuis la dernière sauvegarde</t>
+  </si>
+  <si>
+    <t>Système de mana</t>
+  </si>
+  <si>
+    <t>Sorts</t>
   </si>
 </sst>
 </file>
@@ -738,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,6 +1024,16 @@
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="17"/>
+      <c r="N10" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17"/>
+      <c r="R10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="17"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1047,6 +1063,24 @@
       <c r="L11" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="N11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="2:20" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
@@ -1070,6 +1104,12 @@
       <c r="L12" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="6"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="2:20" ht="132.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="7" t="s">
@@ -1116,7 +1156,7 @@
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="J10:L10"/>
@@ -1124,6 +1164,8 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="R10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Use Case & Scénarios.xlsx
+++ b/Documents/Use Case & Scénarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPNV\Git\GitHub\Darkest-Cave\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB230F9A-A5EE-4B46-A5EE-FDD690852216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC75F2E3-096F-422E-99F5-A81936619D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2955" windowWidth="13920" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Déplacement du joueur</t>
   </si>
@@ -242,12 +242,6 @@
   </si>
   <si>
     <t xml:space="preserve"> il reprend (charger) sa partie depuis la dernière sauvegarde</t>
-  </si>
-  <si>
-    <t>Système de mana</t>
-  </si>
-  <si>
-    <t>Sorts</t>
   </si>
 </sst>
 </file>
@@ -744,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10:T10"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,16 +1018,6 @@
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="17"/>
-      <c r="N10" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17"/>
-      <c r="R10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="17"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1063,24 +1047,6 @@
       <c r="L11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="2:20" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
@@ -1104,12 +1070,6 @@
       <c r="L12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="6"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="2:20" ht="132.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="7" t="s">
@@ -1145,7 +1105,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J16" s="7" t="s">
         <v>62</v>
       </c>
@@ -1156,7 +1116,7 @@
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="J10:L10"/>
@@ -1164,8 +1124,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
